--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\ADM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FA71B-CFB0-4E9C-BA84-F1CFEC43B354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574FA2EB-1086-4A84-8724-628912DD8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14290" yWindow="2610" windowWidth="22070" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="9760" windowWidth="19180" windowHeight="10780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1109,10 +1109,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9C194D-55E7-45EF-80C0-6A51647FC0FD}">
   <dimension ref="A1:AP161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="G50" sqref="G50"/>
+      <selection pane="topRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3890,7 +3890,7 @@
         <v>818</v>
       </c>
       <c r="I44" s="5">
-        <f>U44-SUM(F44:H44)</f>
+        <f t="shared" ref="I44:I50" si="80">U44-SUM(F44:H44)</f>
         <v>897</v>
       </c>
       <c r="J44" s="5">
@@ -3980,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="I45" s="5">
-        <f>U45-SUM(F45:H45)</f>
+        <f t="shared" si="80"/>
         <v>36</v>
       </c>
       <c r="J45" s="5">
@@ -4070,7 +4070,7 @@
         <v>-210</v>
       </c>
       <c r="I46" s="5">
-        <f>U46-SUM(F46:H46)</f>
+        <f t="shared" si="80"/>
         <v>-226</v>
       </c>
       <c r="J46" s="5">
@@ -4154,7 +4154,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5">
-        <f>U47-SUM(F47:H47)</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J47" s="5"/>
@@ -4224,7 +4224,7 @@
         <v>-85</v>
       </c>
       <c r="I48" s="5">
-        <f>U48-SUM(F48:H48)</f>
+        <f t="shared" si="80"/>
         <v>-117</v>
       </c>
       <c r="J48" s="5">
@@ -4314,7 +4314,7 @@
         <v>97</v>
       </c>
       <c r="I49" s="5">
-        <f>U49-SUM(F49:H49)</f>
+        <f t="shared" si="80"/>
         <v>134</v>
       </c>
       <c r="J49" s="5">
@@ -4404,7 +4404,7 @@
         <v>-67</v>
       </c>
       <c r="I50" s="5">
-        <f>U50-SUM(F50:H50)</f>
+        <f t="shared" si="80"/>
         <v>-175</v>
       </c>
       <c r="J50" s="5">
@@ -4472,63 +4472,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" ref="B51:P51" si="80">SUM(B44:B50)</f>
+        <f t="shared" ref="B51:P51" si="81">SUM(B44:B50)</f>
         <v>724</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>638</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>673</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>639</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>626</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>581</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>581</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>549</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>683</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>751</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>779</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>774</v>
       </c>
       <c r="O51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>800</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1257</v>
       </c>
       <c r="Q51" s="6"/>
@@ -4536,11 +4536,11 @@
         <v>2</v>
       </c>
       <c r="S51" s="22">
-        <f t="shared" ref="S51:T51" si="81">SUM(S44:S50)</f>
+        <f t="shared" ref="S51:T51" si="82">SUM(S44:S50)</f>
         <v>2570</v>
       </c>
       <c r="T51" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2674</v>
       </c>
       <c r="U51" s="22">
@@ -4580,63 +4580,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" ref="B52:P52" si="82">B41-B51</f>
+        <f t="shared" ref="B52:P52" si="83">B41-B51</f>
         <v>824</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>825</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>653</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1011</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1271</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1519</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1230</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1213</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1397</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1132</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1031</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>885</v>
       </c>
       <c r="O52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>596</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>108</v>
       </c>
       <c r="Q52" s="6"/>
@@ -4644,11 +4644,11 @@
         <v>2</v>
       </c>
       <c r="S52" s="22">
-        <f t="shared" ref="S52:T52" si="83">S41-S51</f>
+        <f t="shared" ref="S52:T52" si="84">S41-S51</f>
         <v>1883</v>
       </c>
       <c r="T52" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3313</v>
       </c>
       <c r="U52" s="22">
@@ -4697,7 +4697,7 @@
         <v>120</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" ref="E53:E54" si="84">T53-SUM(B53:D53)</f>
+        <f t="shared" ref="E53:E54" si="85">T53-SUM(B53:D53)</f>
         <v>214</v>
       </c>
       <c r="F53" s="5">
@@ -4787,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>15</v>
       </c>
       <c r="F54" s="5">
@@ -4868,35 +4868,35 @@
         <v>16</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" ref="B55:I55" si="85">B52-B53-B54</f>
+        <f t="shared" ref="B55:I55" si="86">B52-B53-B54</f>
         <v>689</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>712</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>526</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>782</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1054</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1236</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1031</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1019</v>
       </c>
       <c r="J55" s="6">
@@ -4904,27 +4904,27 @@
         <v>1170</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" ref="K55:O55" si="86">K52-K53-K54</f>
+        <f t="shared" ref="K55:O55" si="87">K52-K53-K54</f>
         <v>927</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>821</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>729</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>486</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" ref="P55" si="87">P52-P53-P54</f>
+        <f t="shared" ref="P55" si="88">P52-P53-P54</f>
         <v>18</v>
       </c>
       <c r="Q55" s="6"/>
@@ -4932,23 +4932,23 @@
         <v>2</v>
       </c>
       <c r="S55" s="22">
-        <f t="shared" ref="S55:T55" si="88">S52-S53-S54</f>
+        <f t="shared" ref="S55:T55" si="89">S52-S53-S54</f>
         <v>1772</v>
       </c>
       <c r="T55" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2709</v>
       </c>
       <c r="U55" s="22">
-        <f t="shared" ref="U55" si="89">U52-U53-U54</f>
+        <f t="shared" ref="U55" si="90">U52-U53-U54</f>
         <v>4340</v>
       </c>
       <c r="V55" s="6">
-        <f t="shared" ref="V55:W55" si="90">V52-V53-V54</f>
+        <f t="shared" ref="V55:W55" si="91">V52-V53-V54</f>
         <v>2918</v>
       </c>
       <c r="W55" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1233</v>
       </c>
       <c r="X55" s="6"/>
@@ -5197,35 +5197,35 @@
         <v>64</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" ref="B59:I59" si="91">B55/B57</f>
+        <f t="shared" ref="B59:I59" si="92">B55/B57</f>
         <v>1.2238010657193605</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.2624113475177305</v>
       </c>
       <c r="D59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.93262411347517726</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.3865248226950355</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.862190812720848</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2.1837455830388692</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.8377896613190732</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.813167259786477</v>
       </c>
       <c r="J59" s="11">
@@ -5233,27 +5233,27 @@
         <v>2.1272727272727274</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" ref="K59:N59" si="92">K55/K57</f>
+        <f t="shared" ref="K59:N59" si="93">K55/K57</f>
         <v>1.7009174311926605</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.5203703703703704</v>
       </c>
       <c r="M59" s="11" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.4210526315789473</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" ref="O59:P59" si="93">O55/O57</f>
+        <f t="shared" ref="O59:P59" si="94">O55/O57</f>
         <v>0.98780487804878048</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3.7344398340248962E-2</v>
       </c>
       <c r="Q59" s="11"/>
@@ -5261,23 +5261,23 @@
         <v>2</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" ref="S59" si="94">S55/S57</f>
+        <f t="shared" ref="S59" si="95">S55/S57</f>
         <v>3.1586452762923352</v>
       </c>
       <c r="T59" s="11">
-        <f t="shared" ref="T59:U59" si="95">T55/T57</f>
+        <f t="shared" ref="T59:U59" si="96">T55/T57</f>
         <v>4.8031914893617023</v>
       </c>
       <c r="U59" s="26">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>7.722419928825623</v>
       </c>
       <c r="V59" s="11" t="e">
-        <f t="shared" ref="V59:W59" si="96">V55/V57</f>
+        <f t="shared" ref="V59:W59" si="97">V55/V57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="11" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X59" s="11"/>
@@ -5290,35 +5290,35 @@
         <v>65</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" ref="B60:I60" si="97">B55/B58</f>
+        <f t="shared" ref="B60:I60" si="98">B55/B58</f>
         <v>1.2216312056737588</v>
       </c>
       <c r="C60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.2579505300353357</v>
       </c>
       <c r="D60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.92932862190812726</v>
       </c>
       <c r="E60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.3816254416961131</v>
       </c>
       <c r="F60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.8556338028169015</v>
       </c>
       <c r="G60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2.176056338028169</v>
       </c>
       <c r="H60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.8312611012433393</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.8099467140319716</v>
       </c>
       <c r="J60" s="11">
@@ -5326,27 +5326,27 @@
         <v>2.1234119782214158</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" ref="K60:N60" si="98">K55/K58</f>
+        <f t="shared" ref="K60:N60" si="99">K55/K58</f>
         <v>1.6978021978021978</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.5203703703703704</v>
       </c>
       <c r="M60" s="11" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.4182879377431907</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" ref="O60:P60" si="99">O55/O58</f>
+        <f t="shared" ref="O60:P60" si="100">O55/O58</f>
         <v>0.98580121703853951</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>3.7267080745341616E-2</v>
       </c>
       <c r="Q60" s="11"/>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" ref="S60" si="100">S55/S58</f>
+        <f t="shared" ref="S60" si="101">S55/S58</f>
         <v>3.1362831858407079</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" ref="T60:U60" si="101">T55/T58</f>
+        <f t="shared" ref="T60:U60" si="102">T55/T58</f>
         <v>4.7862190812720851</v>
       </c>
       <c r="U60" s="26">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>7.7087033747779747</v>
       </c>
       <c r="V60" s="11" t="e">
-        <f t="shared" ref="V60:W60" si="102">V55/V58</f>
+        <f t="shared" ref="V60:W60" si="103">V55/V58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W60" s="11" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X60" s="11"/>
@@ -5481,71 +5481,71 @@
     </row>
     <row r="63" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="17" t="str">
-        <f t="shared" ref="B63:R63" si="103">B36</f>
+        <f t="shared" ref="B63:R63" si="104">B36</f>
         <v>Q121</v>
       </c>
       <c r="C63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q221</v>
       </c>
       <c r="D63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q321</v>
       </c>
       <c r="E63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q421</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q122</v>
       </c>
       <c r="G63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q222</v>
       </c>
       <c r="H63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q322</v>
       </c>
       <c r="I63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q422</v>
       </c>
       <c r="J63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q123</v>
       </c>
       <c r="K63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q223</v>
       </c>
       <c r="L63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q323</v>
       </c>
       <c r="M63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q423</v>
       </c>
       <c r="N63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q124</v>
       </c>
       <c r="O63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q224</v>
       </c>
       <c r="P63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q324</v>
       </c>
       <c r="Q63" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>Q424</v>
       </c>
       <c r="R63" s="18" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>xxx</v>
       </c>
       <c r="S63" s="17">
@@ -5579,63 +5579,63 @@
         <v>67</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" ref="B65:I65" si="104">B55</f>
+        <f t="shared" ref="B65:I65" si="105">B55</f>
         <v>689</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>712</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>526</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>782</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1054</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1236</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1031</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1019</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" ref="J65:P65" si="105">J55</f>
+        <f t="shared" ref="J65:P65" si="106">J55</f>
         <v>1170</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>927</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>821</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>729</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>486</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>18</v>
       </c>
       <c r="Q65" s="6"/>
@@ -5643,15 +5643,15 @@
         <v>2</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" ref="S65:U65" si="106">S55</f>
+        <f t="shared" ref="S65:U65" si="107">S55</f>
         <v>1772</v>
       </c>
       <c r="T65" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2709</v>
       </c>
       <c r="U65" s="22">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>4340</v>
       </c>
       <c r="V65" s="6">
@@ -5731,11 +5731,11 @@
         <v>4365</v>
       </c>
       <c r="V66" s="5">
-        <f t="shared" ref="V66:V83" si="107">SUM(J66:M66)</f>
+        <f t="shared" ref="V66:V83" si="108">SUM(J66:M66)</f>
         <v>2924</v>
       </c>
       <c r="W66" s="5">
-        <f t="shared" ref="W66:W83" si="108">SUM(N66:Q66)</f>
+        <f t="shared" ref="W66:W83" si="109">SUM(N66:Q66)</f>
         <v>1218</v>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
         <v>247</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" ref="E67:E83" si="109">T67-SUM(B67:D67)</f>
+        <f t="shared" ref="E67:E83" si="110">T67-SUM(B67:D67)</f>
         <v>257</v>
       </c>
       <c r="F67">
@@ -5768,7 +5768,7 @@
         <v>260</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I83" si="110">U67-SUM(F67:H67)</f>
+        <f t="shared" ref="I67:I83" si="111">U67-SUM(F67:H67)</f>
         <v>254</v>
       </c>
       <c r="J67" s="5">
@@ -5807,11 +5807,11 @@
         <v>1028</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>782</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>854</v>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>71</v>
       </c>
       <c r="F68">
@@ -5844,7 +5844,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>17</v>
       </c>
       <c r="J68" s="5">
@@ -5883,11 +5883,11 @@
         <v>37</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>120</v>
       </c>
       <c r="W68" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>517</v>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
         <v>-58</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-34</v>
       </c>
       <c r="F69">
@@ -5920,7 +5920,7 @@
         <v>-24</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-50</v>
       </c>
       <c r="J69" s="5">
@@ -5959,11 +5959,11 @@
         <v>-89</v>
       </c>
       <c r="V69" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>17</v>
       </c>
       <c r="W69" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-107</v>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
         <v>-13</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-141</v>
       </c>
       <c r="F70">
@@ -5996,7 +5996,7 @@
         <v>-117</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-178</v>
       </c>
       <c r="J70" s="5">
@@ -6035,11 +6035,11 @@
         <v>-457</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-64</v>
       </c>
       <c r="W70" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-151</v>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
         <v>21</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>26</v>
       </c>
       <c r="F71">
@@ -6072,7 +6072,7 @@
         <v>26</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>24</v>
       </c>
       <c r="J71" s="5">
@@ -6111,11 +6111,11 @@
         <v>147</v>
       </c>
       <c r="V71" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>98</v>
       </c>
       <c r="W71" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>74</v>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
         <v>36</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-2</v>
       </c>
       <c r="F72">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-84</v>
       </c>
       <c r="J72">
@@ -6174,11 +6174,11 @@
         <v>-84</v>
       </c>
       <c r="V72" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="W72" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>75</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-222</v>
       </c>
       <c r="F73">
@@ -6211,7 +6211,7 @@
         <v>39</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-245</v>
       </c>
       <c r="J73" s="5">
@@ -6250,11 +6250,11 @@
         <v>0</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-13</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-115</v>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
         <v>-16</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-54</v>
       </c>
       <c r="F74">
@@ -6287,7 +6287,7 @@
         <v>-35</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-38</v>
       </c>
       <c r="J74" s="5">
@@ -6326,11 +6326,11 @@
         <v>-115</v>
       </c>
       <c r="V74" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-33</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>9</v>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
         <v>63</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>153</v>
       </c>
       <c r="F75">
@@ -6363,7 +6363,7 @@
         <v>237</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-371</v>
       </c>
       <c r="J75" s="5">
@@ -6402,11 +6402,11 @@
         <v>178</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-27</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>42</v>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
         <v>-16</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-194</v>
       </c>
       <c r="F76">
@@ -6439,7 +6439,7 @@
         <v>301</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-60</v>
       </c>
       <c r="J76" s="5">
@@ -6478,11 +6478,11 @@
         <v>-1512</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-1183</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-257</v>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
         <v>-350</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>482</v>
       </c>
       <c r="F77">
@@ -6515,7 +6515,7 @@
         <v>542</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-69</v>
       </c>
       <c r="J77" s="5">
@@ -6554,11 +6554,11 @@
         <v>-1682</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>443</v>
       </c>
       <c r="W77" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>476</v>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
         <v>182</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-3244</v>
       </c>
       <c r="F78">
@@ -6591,7 +6591,7 @@
         <v>939</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-885</v>
       </c>
       <c r="J78" s="5">
@@ -6630,11 +6630,11 @@
         <v>-295</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>3501</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1233</v>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
         <v>407</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>111</v>
       </c>
       <c r="F79">
@@ -6667,7 +6667,7 @@
         <v>664</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>650</v>
       </c>
       <c r="J79" s="5">
@@ -6704,11 +6704,11 @@
         <v>-279</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>126</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>745</v>
       </c>
     </row>
@@ -6717,11 +6717,11 @@
         <v>159</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J80" s="5"/>
@@ -6762,7 +6762,7 @@
         <v>1193</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1749</v>
       </c>
       <c r="F81">
@@ -6776,7 +6776,7 @@
         <v>1015</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1084</v>
       </c>
       <c r="J81" s="5">
@@ -6813,11 +6813,11 @@
         <v>1389</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-2561</v>
       </c>
       <c r="W81" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-1418</v>
       </c>
     </row>
@@ -6836,7 +6836,7 @@
         <v>887</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>291</v>
       </c>
       <c r="F82">
@@ -6850,7 +6850,7 @@
         <v>-814</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-815</v>
       </c>
       <c r="J82" s="5">
@@ -6887,11 +6887,11 @@
         <v>891</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-1580</v>
       </c>
       <c r="W82" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-249</v>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         <v>-345</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>696</v>
       </c>
       <c r="F83">
@@ -6924,7 +6924,7 @@
         <v>-63</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-128</v>
       </c>
       <c r="J83" s="5">
@@ -6961,11 +6961,11 @@
         <v>-44</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-659</v>
       </c>
       <c r="W83" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-403</v>
       </c>
     </row>
@@ -6974,63 +6974,63 @@
         <v>21</v>
       </c>
       <c r="B84" s="22">
-        <f t="shared" ref="B84:P84" si="111">+SUM(B66:B83)</f>
+        <f t="shared" ref="B84:P84" si="112">+SUM(B66:B83)</f>
         <v>298</v>
       </c>
       <c r="C84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2709</v>
       </c>
       <c r="D84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2846</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>742</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>-1206</v>
       </c>
       <c r="G84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>531</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>4023</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>130</v>
       </c>
       <c r="J84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>-1610</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2509</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>992</v>
       </c>
       <c r="M84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>700</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>468</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1300</v>
       </c>
       <c r="Q84" s="6"/>
@@ -7038,11 +7038,11 @@
         <v>2</v>
       </c>
       <c r="S84" s="22">
-        <f t="shared" ref="S84:T84" si="112">+SUM(S66:S83)</f>
+        <f t="shared" ref="S84:T84" si="113">+SUM(S66:S83)</f>
         <v>-2386</v>
       </c>
       <c r="T84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>6595</v>
       </c>
       <c r="U84" s="22">
@@ -7050,11 +7050,11 @@
         <v>3478</v>
       </c>
       <c r="V84" s="22">
-        <f t="shared" ref="V84:W84" si="113">+SUM(V66:V83)</f>
+        <f t="shared" ref="V84:W84" si="114">+SUM(V66:V83)</f>
         <v>1891</v>
       </c>
       <c r="W84" s="22">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2468</v>
       </c>
     </row>
@@ -7076,79 +7076,79 @@
     </row>
     <row r="86" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="17" t="str">
-        <f t="shared" ref="B86:I86" si="114">B63</f>
+        <f t="shared" ref="B86:I86" si="115">B63</f>
         <v>Q121</v>
       </c>
       <c r="C86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q221</v>
       </c>
       <c r="D86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q321</v>
       </c>
       <c r="E86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q421</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q122</v>
       </c>
       <c r="G86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q222</v>
       </c>
       <c r="H86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q322</v>
       </c>
       <c r="I86" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>Q422</v>
       </c>
       <c r="J86" s="17" t="str">
-        <f t="shared" ref="J86:R86" si="115">J63</f>
+        <f t="shared" ref="J86:R86" si="116">J63</f>
         <v>Q123</v>
       </c>
       <c r="K86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q223</v>
       </c>
       <c r="L86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q323</v>
       </c>
       <c r="M86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q423</v>
       </c>
       <c r="N86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q124</v>
       </c>
       <c r="O86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q224</v>
       </c>
       <c r="P86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q324</v>
       </c>
       <c r="Q86" s="17" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>Q424</v>
       </c>
       <c r="R86" s="18" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>xxx</v>
       </c>
       <c r="T86" s="17">
-        <f t="shared" ref="T86:U86" si="116">T63</f>
+        <f t="shared" ref="T86:U86" si="117">T63</f>
         <v>2021</v>
       </c>
       <c r="U86" s="24">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2022</v>
       </c>
       <c r="V86" s="17">
@@ -7262,7 +7262,7 @@
         <v>8016</v>
       </c>
       <c r="U89" s="23">
-        <f t="shared" ref="U89:U92" si="117">I89</f>
+        <f t="shared" ref="U89:U92" si="118">I89</f>
         <v>9010</v>
       </c>
       <c r="V89" s="5">
@@ -7315,7 +7315,7 @@
         <v>3311</v>
       </c>
       <c r="U90" s="23">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4926</v>
       </c>
       <c r="V90" s="5">
@@ -7368,7 +7368,7 @@
         <v>14481</v>
       </c>
       <c r="U91" s="23">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>14771</v>
       </c>
       <c r="V91" s="5">
@@ -7421,7 +7421,7 @@
         <v>5158</v>
       </c>
       <c r="U92" s="23">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5666</v>
       </c>
       <c r="V92" s="5">
@@ -7439,31 +7439,31 @@
         <v>0</v>
       </c>
       <c r="C93" s="6">
-        <f t="shared" ref="C93:I93" si="118">+SUM(C88:C92)</f>
+        <f t="shared" ref="C93:I93" si="119">+SUM(C88:C92)</f>
         <v>0</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>31909</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>40453</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>37647</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>34569</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>35410</v>
       </c>
       <c r="J93" s="6">
@@ -7471,27 +7471,27 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" ref="K93:P93" si="119">+SUM(K88:K92)</f>
+        <f t="shared" ref="K93:P93" si="120">+SUM(K88:K92)</f>
         <v>0</v>
       </c>
       <c r="L93" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>29767</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>29006</v>
       </c>
       <c r="O93" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>26962</v>
       </c>
       <c r="P93" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>26626</v>
       </c>
       <c r="R93" s="1" t="s">
@@ -7499,19 +7499,19 @@
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6">
-        <f t="shared" ref="T93:U93" si="120">+SUM(T88:T92)</f>
+        <f t="shared" ref="T93:U93" si="121">+SUM(T88:T92)</f>
         <v>31909</v>
       </c>
       <c r="U93" s="22">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>35410</v>
       </c>
       <c r="V93" s="6">
-        <f t="shared" ref="V93:W93" si="121">+SUM(V88:V92)</f>
+        <f t="shared" ref="V93:W93" si="122">+SUM(V88:V92)</f>
         <v>29767</v>
       </c>
       <c r="W93" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
         <v>5285</v>
       </c>
       <c r="U94" s="23">
-        <f t="shared" ref="U94:U97" si="122">I94</f>
+        <f t="shared" ref="U94:U97" si="123">I94</f>
         <v>5467</v>
       </c>
       <c r="V94" s="5">
@@ -7612,7 +7612,7 @@
         <v>6747</v>
       </c>
       <c r="U95" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6544</v>
       </c>
       <c r="V95" s="5">
@@ -7665,7 +7665,7 @@
         <v>1023</v>
       </c>
       <c r="U96" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1088</v>
       </c>
       <c r="V96" s="5">
@@ -7718,7 +7718,7 @@
         <v>1369</v>
       </c>
       <c r="U97" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1332</v>
       </c>
       <c r="V97" s="5">
@@ -7732,35 +7732,35 @@
         <v>87</v>
       </c>
       <c r="B98" s="6">
-        <f t="shared" ref="B98:I98" si="123">+SUM(B94:B97)</f>
+        <f t="shared" ref="B98:I98" si="124">+SUM(B94:B97)</f>
         <v>0</v>
       </c>
       <c r="C98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>14424</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>14619</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>14501</v>
       </c>
       <c r="H98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>14130</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>14431</v>
       </c>
       <c r="J98" s="6">
@@ -7768,27 +7768,27 @@
         <v>0</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" ref="K98:P98" si="124">+SUM(K94:K97)</f>
+        <f t="shared" ref="K98:P98" si="125">+SUM(K94:K97)</f>
         <v>0</v>
       </c>
       <c r="L98" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>14356</v>
       </c>
       <c r="N98" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>15229</v>
       </c>
       <c r="O98" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>15108</v>
       </c>
       <c r="P98" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>14745</v>
       </c>
       <c r="R98" s="1" t="s">
@@ -7796,19 +7796,19 @@
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6">
-        <f t="shared" ref="T98:U98" si="125">+SUM(T94:T97)</f>
+        <f t="shared" ref="T98:U98" si="126">+SUM(T94:T97)</f>
         <v>14424</v>
       </c>
       <c r="U98" s="22">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>14431</v>
       </c>
       <c r="V98" s="6">
-        <f t="shared" ref="V98:W98" si="126">+SUM(V94:V97)</f>
+        <f t="shared" ref="V98:W98" si="127">+SUM(V94:V97)</f>
         <v>14356</v>
       </c>
       <c r="W98" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
         <v>554</v>
       </c>
       <c r="U99" s="23">
-        <f t="shared" ref="U99:U103" si="127">I99</f>
+        <f t="shared" ref="U99:U103" si="128">I99</f>
         <v>502</v>
       </c>
       <c r="V99" s="5">
@@ -7908,7 +7908,7 @@
         <v>5597</v>
       </c>
       <c r="U100" s="23">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>5639</v>
       </c>
       <c r="V100" s="5">
@@ -7960,7 +7960,7 @@
         <v>19112</v>
       </c>
       <c r="U101" s="23">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>19194</v>
       </c>
       <c r="V101" s="5">
@@ -8012,7 +8012,7 @@
         <v>960</v>
       </c>
       <c r="U102" s="23">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>1440</v>
       </c>
       <c r="V102" s="5">
@@ -8064,7 +8064,7 @@
         <v>-16420</v>
       </c>
       <c r="U103" s="23">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>-16842</v>
       </c>
       <c r="V103" s="5">
@@ -8077,35 +8077,35 @@
         <v>93</v>
       </c>
       <c r="B104" s="6">
-        <f t="shared" ref="B104:I104" si="128">+SUM(B99:B103)</f>
+        <f t="shared" ref="B104:I104" si="129">+SUM(B99:B103)</f>
         <v>0</v>
       </c>
       <c r="C104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9803</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9794</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9680</v>
       </c>
       <c r="H104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9605</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9933</v>
       </c>
       <c r="J104" s="6">
@@ -8113,27 +8113,27 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" ref="K104:N104" si="129">+SUM(K99:K103)</f>
+        <f t="shared" ref="K104:N104" si="130">+SUM(K99:K103)</f>
         <v>0</v>
       </c>
       <c r="L104" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>10508</v>
       </c>
       <c r="N104" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>10596</v>
       </c>
       <c r="O104" s="6">
-        <f t="shared" ref="O104:P104" si="130">+SUM(O99:O103)</f>
+        <f t="shared" ref="O104:P104" si="131">+SUM(O99:O103)</f>
         <v>10628</v>
       </c>
       <c r="P104" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>10828</v>
       </c>
       <c r="R104" s="1" t="s">
@@ -8141,19 +8141,19 @@
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6">
-        <f t="shared" ref="T104:U104" si="131">+SUM(T99:T103)</f>
+        <f t="shared" ref="T104:U104" si="132">+SUM(T99:T103)</f>
         <v>9803</v>
       </c>
       <c r="U104" s="22">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>9933</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" ref="V104:W104" si="132">+SUM(V99:V103)</f>
+        <f t="shared" ref="V104:W104" si="133">+SUM(V99:V103)</f>
         <v>10508</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
     </row>
@@ -8162,35 +8162,35 @@
         <v>24</v>
       </c>
       <c r="B105" s="6">
-        <f t="shared" ref="B105:I105" si="133">+B104+B98+B93</f>
+        <f t="shared" ref="B105:I105" si="134">+B104+B98+B93</f>
         <v>0</v>
       </c>
       <c r="C105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>56136</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>64866</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>61828</v>
       </c>
       <c r="H105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>58304</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>59774</v>
       </c>
       <c r="J105" s="6">
@@ -8198,27 +8198,27 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" ref="K105:N105" si="134">+K104+K98+K93</f>
+        <f t="shared" ref="K105:N105" si="135">+K104+K98+K93</f>
         <v>0</v>
       </c>
       <c r="L105" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>54631</v>
       </c>
       <c r="N105" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>54831</v>
       </c>
       <c r="O105" s="6">
-        <f t="shared" ref="O105:P105" si="135">+O104+O98+O93</f>
+        <f t="shared" ref="O105:P105" si="136">+O104+O98+O93</f>
         <v>52698</v>
       </c>
       <c r="P105" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>52199</v>
       </c>
       <c r="R105" s="1" t="s">
@@ -8226,19 +8226,19 @@
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="6">
-        <f t="shared" ref="T105:U105" si="136">+T104+T98+T93</f>
+        <f t="shared" ref="T105:U105" si="137">+T104+T98+T93</f>
         <v>56136</v>
       </c>
       <c r="U105" s="22">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>59774</v>
       </c>
       <c r="V105" s="6">
-        <f t="shared" ref="V105:W105" si="137">+V104+V98+V93</f>
+        <f t="shared" ref="V105:W105" si="138">+V104+V98+V93</f>
         <v>54631</v>
       </c>
       <c r="W105" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
     </row>
@@ -8290,15 +8290,15 @@
       </c>
       <c r="S107" s="5"/>
       <c r="T107" s="5">
-        <f t="shared" ref="T107:T112" si="138">E107</f>
+        <f t="shared" ref="T107:T112" si="139">E107</f>
         <v>958</v>
       </c>
       <c r="U107" s="23">
-        <f t="shared" ref="U107:U112" si="139">I107</f>
+        <f t="shared" ref="U107:U112" si="140">I107</f>
         <v>503</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" ref="V107:V112" si="140">M107</f>
+        <f t="shared" ref="V107:V112" si="141">M107</f>
         <v>105</v>
       </c>
     </row>
@@ -8342,15 +8342,15 @@
       </c>
       <c r="S108" s="5"/>
       <c r="T108" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6388</v>
       </c>
       <c r="U108" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>7803</v>
       </c>
       <c r="V108" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>6313</v>
       </c>
     </row>
@@ -8394,15 +8394,15 @@
       </c>
       <c r="S109" s="5"/>
       <c r="T109" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>8965</v>
       </c>
       <c r="U109" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>9856</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>7867</v>
       </c>
     </row>
@@ -8446,15 +8446,15 @@
       </c>
       <c r="S110" s="5"/>
       <c r="T110" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>4790</v>
       </c>
       <c r="U110" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>292</v>
       </c>
       <c r="V110" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>4076</v>
       </c>
     </row>
@@ -8498,15 +8498,15 @@
       </c>
       <c r="S111" s="5"/>
       <c r="T111" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>277</v>
       </c>
       <c r="U111" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>4795</v>
       </c>
       <c r="V111" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>300</v>
       </c>
     </row>
@@ -8550,15 +8550,15 @@
       </c>
       <c r="S112" s="5"/>
       <c r="T112" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>570</v>
       </c>
       <c r="U112" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>942</v>
       </c>
       <c r="V112" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
     </row>
@@ -8567,35 +8567,35 @@
         <v>98</v>
       </c>
       <c r="B113" s="6">
-        <f t="shared" ref="B113:I113" si="141">+SUM(B107:B112)</f>
+        <f t="shared" ref="B113:I113" si="142">+SUM(B107:B112)</f>
         <v>0</v>
       </c>
       <c r="C113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="E113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>21948</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>28523</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>25660</v>
       </c>
       <c r="H113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>22936</v>
       </c>
       <c r="I113" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>24191</v>
       </c>
       <c r="J113" s="6">
@@ -8603,27 +8603,27 @@
         <v>0</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" ref="K113:P113" si="142">+SUM(K107:K112)</f>
+        <f t="shared" ref="K113:P113" si="143">+SUM(K107:K112)</f>
         <v>0</v>
       </c>
       <c r="L113" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="M113" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>18662</v>
       </c>
       <c r="N113" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>19730</v>
       </c>
       <c r="O113" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>18684</v>
       </c>
       <c r="P113" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>19003</v>
       </c>
       <c r="R113" s="1" t="s">
@@ -8631,19 +8631,19 @@
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="6">
-        <f t="shared" ref="T113:U113" si="143">+SUM(T107:T112)</f>
+        <f t="shared" ref="T113:U113" si="144">+SUM(T107:T112)</f>
         <v>21948</v>
       </c>
       <c r="U113" s="22">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>24191</v>
       </c>
       <c r="V113" s="6">
-        <f t="shared" ref="V113:W113" si="144">+SUM(V107:V112)</f>
+        <f t="shared" ref="V113:W113" si="145">+SUM(V107:V112)</f>
         <v>18662</v>
       </c>
       <c r="W113" s="6">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
         <v>8011</v>
       </c>
       <c r="U114" s="23">
-        <f t="shared" ref="U114:U117" si="145">I114</f>
+        <f t="shared" ref="U114:U117" si="146">I114</f>
         <v>7735</v>
       </c>
       <c r="V114" s="5">
@@ -8743,7 +8743,7 @@
         <v>1412</v>
       </c>
       <c r="U115" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1402</v>
       </c>
       <c r="V115" s="5">
@@ -8795,7 +8795,7 @@
         <v>765</v>
       </c>
       <c r="U116" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>816</v>
       </c>
       <c r="V116" s="5">
@@ -8847,7 +8847,7 @@
         <v>1233</v>
       </c>
       <c r="U117" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1014</v>
       </c>
       <c r="V117" s="5">
@@ -8860,35 +8860,35 @@
         <v>106</v>
       </c>
       <c r="B118" s="6">
-        <f t="shared" ref="B118:I118" si="146">+SUM(B114:B117)</f>
+        <f t="shared" ref="B118:I118" si="147">+SUM(B114:B117)</f>
         <v>0</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11421</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>12326</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11481</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11349</v>
       </c>
       <c r="I118" s="6">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>10967</v>
       </c>
       <c r="J118" s="6">
@@ -8896,27 +8896,27 @@
         <v>0</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" ref="K118:N118" si="147">+SUM(K114:K117)</f>
+        <f t="shared" ref="K118:N118" si="148">+SUM(K114:K117)</f>
         <v>0</v>
       </c>
       <c r="L118" s="6">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="M118" s="6">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>11504</v>
       </c>
       <c r="N118" s="6">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>11562</v>
       </c>
       <c r="O118" s="6">
-        <f t="shared" ref="O118:P118" si="148">+SUM(O114:O117)</f>
+        <f t="shared" ref="O118:P118" si="149">+SUM(O114:O117)</f>
         <v>11553</v>
       </c>
       <c r="P118" s="6">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10929</v>
       </c>
       <c r="R118" s="1" t="s">
@@ -8924,19 +8924,19 @@
       </c>
       <c r="S118" s="6"/>
       <c r="T118" s="6">
-        <f t="shared" ref="T118:U118" si="149">+SUM(T114:T117)</f>
+        <f t="shared" ref="T118:U118" si="150">+SUM(T114:T117)</f>
         <v>11421</v>
       </c>
       <c r="U118" s="22">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>10967</v>
       </c>
       <c r="V118" s="6">
-        <f t="shared" ref="V118:W118" si="150">+SUM(V114:V117)</f>
+        <f t="shared" ref="V118:W118" si="151">+SUM(V114:V117)</f>
         <v>11504</v>
       </c>
       <c r="W118" s="6">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -8945,35 +8945,35 @@
         <v>102</v>
       </c>
       <c r="B119" s="6">
-        <f t="shared" ref="B119:I119" si="151">+B118+B113</f>
+        <f t="shared" ref="B119:I119" si="152">+B118+B113</f>
         <v>0</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>33369</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>40849</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>37141</v>
       </c>
       <c r="H119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>34285</v>
       </c>
       <c r="I119" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>35158</v>
       </c>
       <c r="J119" s="6">
@@ -8981,27 +8981,27 @@
         <v>0</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119:N119" si="152">+K118+K113</f>
+        <f t="shared" ref="K119:N119" si="153">+K118+K113</f>
         <v>0</v>
       </c>
       <c r="L119" s="6">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M119" s="6">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>30166</v>
       </c>
       <c r="N119" s="6">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>31292</v>
       </c>
       <c r="O119" s="6">
-        <f t="shared" ref="O119:P119" si="153">+O118+O113</f>
+        <f t="shared" ref="O119:P119" si="154">+O118+O113</f>
         <v>30237</v>
       </c>
       <c r="P119" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>29932</v>
       </c>
       <c r="R119" s="1" t="s">
@@ -9009,19 +9009,19 @@
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="6">
-        <f t="shared" ref="T119:U119" si="154">+T118+T113</f>
+        <f t="shared" ref="T119:U119" si="155">+T118+T113</f>
         <v>33369</v>
       </c>
       <c r="U119" s="22">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>35158</v>
       </c>
       <c r="V119" s="6">
-        <f t="shared" ref="V119:W119" si="155">+V118+V113</f>
+        <f t="shared" ref="V119:W119" si="156">+V118+V113</f>
         <v>30166</v>
       </c>
       <c r="W119" s="6">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
     </row>
@@ -9068,7 +9068,7 @@
         <v>259</v>
       </c>
       <c r="U120" s="23">
-        <f t="shared" ref="U120" si="156">I120</f>
+        <f t="shared" ref="U120" si="157">I120</f>
         <v>299</v>
       </c>
       <c r="V120">
@@ -9135,7 +9135,7 @@
         <v>2994</v>
       </c>
       <c r="U122" s="23">
-        <f t="shared" ref="U122:U125" si="157">I122</f>
+        <f t="shared" ref="U122:U125" si="158">I122</f>
         <v>3147</v>
       </c>
       <c r="V122" s="5">
@@ -9187,7 +9187,7 @@
         <v>21655</v>
       </c>
       <c r="U123" s="23">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>23646</v>
       </c>
       <c r="V123" s="5">
@@ -9239,7 +9239,7 @@
         <v>-2172</v>
       </c>
       <c r="U124" s="23">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-2509</v>
       </c>
       <c r="V124" s="5">
@@ -9291,7 +9291,7 @@
         <v>31</v>
       </c>
       <c r="U125" s="23">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>33</v>
       </c>
       <c r="V125" s="5">
@@ -9304,35 +9304,35 @@
         <v>28</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" ref="B126:I126" si="158">+SUM(B122:B125)</f>
+        <f t="shared" ref="B126:I126" si="159">+SUM(B122:B125)</f>
         <v>0</v>
       </c>
       <c r="C126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>22508</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>23755</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>24426</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>24029</v>
       </c>
       <c r="I126" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>24317</v>
       </c>
       <c r="J126" s="6">
@@ -9340,27 +9340,27 @@
         <v>0</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" ref="K126:N126" si="159">+SUM(K122:K125)</f>
+        <f t="shared" ref="K126:N126" si="160">+SUM(K122:K125)</f>
         <v>0</v>
       </c>
       <c r="L126" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M126" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>24145</v>
       </c>
       <c r="N126" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>23232</v>
       </c>
       <c r="O126" s="6">
-        <f t="shared" ref="O126:P126" si="160">+SUM(O122:O125)</f>
+        <f t="shared" ref="O126:P126" si="161">+SUM(O122:O125)</f>
         <v>22159</v>
       </c>
       <c r="P126" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>21984</v>
       </c>
       <c r="R126" s="1" t="s">
@@ -9368,19 +9368,19 @@
       </c>
       <c r="S126" s="6"/>
       <c r="T126" s="6">
-        <f t="shared" ref="T126:U126" si="161">+SUM(T122:T125)</f>
+        <f t="shared" ref="T126:U126" si="162">+SUM(T122:T125)</f>
         <v>22508</v>
       </c>
       <c r="U126" s="22">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>24317</v>
       </c>
       <c r="V126" s="6">
-        <f t="shared" ref="V126:W126" si="162">+SUM(V122:V125)</f>
+        <f t="shared" ref="V126:W126" si="163">+SUM(V122:V125)</f>
         <v>24145</v>
       </c>
       <c r="W126" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>
@@ -9389,35 +9389,35 @@
         <v>107</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" ref="B127:I127" si="163">+B126+B120+B119</f>
+        <f t="shared" ref="B127:I127" si="164">+B126+B120+B119</f>
         <v>0</v>
       </c>
       <c r="C127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>56136</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>64866</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>61828</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>58604</v>
       </c>
       <c r="I127" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>59774</v>
       </c>
       <c r="J127" s="6">
@@ -9425,27 +9425,27 @@
         <v>0</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" ref="K127:N127" si="164">+K126+K120+K119</f>
+        <f t="shared" ref="K127:N127" si="165">+K126+K120+K119</f>
         <v>0</v>
       </c>
       <c r="L127" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="M127" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>54631</v>
       </c>
       <c r="N127" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>54831</v>
       </c>
       <c r="O127" s="6">
-        <f t="shared" ref="O127:P127" si="165">+O126+O120+O119</f>
+        <f t="shared" ref="O127:P127" si="166">+O126+O120+O119</f>
         <v>52698</v>
       </c>
       <c r="P127" s="6">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>52199</v>
       </c>
       <c r="R127" s="1" t="s">
@@ -9453,19 +9453,19 @@
       </c>
       <c r="S127" s="6"/>
       <c r="T127" s="6">
-        <f t="shared" ref="T127:U127" si="166">+T126+T120+T119</f>
+        <f t="shared" ref="T127:U127" si="167">+T126+T120+T119</f>
         <v>56136</v>
       </c>
       <c r="U127" s="22">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>59774</v>
       </c>
       <c r="V127" s="6">
-        <f t="shared" ref="V127:W127" si="167">+V126+V120+V119</f>
+        <f t="shared" ref="V127:W127" si="168">+V126+V120+V119</f>
         <v>54631</v>
       </c>
       <c r="W127" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
   <dimension ref="A1:U158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9616EEE9-C312-4276-A68C-7198A3E5DAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC81865-9740-4E49-BCEA-4C920C5F4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="5060" windowWidth="18740" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1300" windowWidth="19120" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,15 +1019,18 @@
     <col min="2" max="2" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>46.09</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>125</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -1051,42 +1054,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
     </row>
@@ -1116,10 +1119,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9C194D-55E7-45EF-80C0-6A51647FC0FD}">
   <dimension ref="A1:AP162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="A3" sqref="A1:XFD3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC81865-9740-4E49-BCEA-4C920C5F4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E16414-2A84-4C64-9601-237F4DCE5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1300" windowWidth="19120" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,7 +1027,7 @@
         <v>157</v>
       </c>
       <c r="J3">
-        <v>46.09</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">

--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E16414-2A84-4C64-9601-237F4DCE5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88EC04-E2F5-44A3-B7E9-5364A2B35164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16740" yWindow="1670" windowWidth="18100" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
         <v>157</v>
       </c>
       <c r="J3">
-        <v>48.53</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">

--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88EC04-E2F5-44A3-B7E9-5364A2B35164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8259A3-02D7-4692-BA82-6B699393BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="1670" windowWidth="18100" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1011,15 +1011,16 @@
   <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -1027,10 +1028,13 @@
         <v>157</v>
       </c>
       <c r="J3">
-        <v>48.27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+        <v>53.99</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>125</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>126</v>
       </c>
@@ -1054,42 +1058,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
     </row>

--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8259A3-02D7-4692-BA82-6B699393BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71220B03-334D-4526-983E-DFF271C4E9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="14630" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,10 +1028,10 @@
         <v>157</v>
       </c>
       <c r="J3">
-        <v>53.99</v>
+        <v>55.31</v>
       </c>
       <c r="K3" s="9">
-        <v>45827</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
